--- a/data/excel_files/final.xlsx
+++ b/data/excel_files/final.xlsx
@@ -491,7 +491,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>SCAVS</t>
         </is>
@@ -530,7 +530,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>BECKYARDIGANS</t>
         </is>
@@ -569,7 +569,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>MINORITIES</t>
         </is>
@@ -608,7 +608,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>KILLER BS</t>
         </is>
@@ -647,7 +647,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>DIDDLERS</t>
         </is>
@@ -686,7 +686,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>WONDER PETS</t>
         </is>
@@ -725,7 +725,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>EXECUTIVE PROJEC</t>
         </is>
@@ -764,7 +764,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>PUSHIN PULLIS</t>
         </is>
